--- a/fhir/ValueSet-dk-ihe-eventcodelists-vs.xlsx
+++ b/fhir/ValueSet-dk-ihe-eventcodelists-vs.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0</t>
+    <t>3.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-dk-ihe-eventcodelists-vs.xlsx
+++ b/fhir/ValueSet-dk-ihe-eventcodelists-vs.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.3.0</t>
+    <t>3.4.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-dk-ihe-eventcodelists-vs.xlsx
+++ b/fhir/ValueSet-dk-ihe-eventcodelists-vs.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.0</t>
+    <t>3.4.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-dk-ihe-eventcodelists-vs.xlsx
+++ b/fhir/ValueSet-dk-ihe-eventcodelists-vs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="84">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.1</t>
+    <t>3.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2019-12-11T00:00:00+00:00</t>
+    <t>2025-03-07T00:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -183,27 +183,39 @@
     <t>P(kB)—Glucose; stofk. = ? mmol/L</t>
   </si>
   <si>
+    <t>NPU03011</t>
+  </si>
+  <si>
+    <t>Hb(Fe; O2-bind.; aB)—Oxygen(O2); mætn. = ?</t>
+  </si>
+  <si>
+    <t>NPU27281</t>
+  </si>
+  <si>
+    <t>Pt—Legeme; massekoefficient(masse/kvadreret højde) = ? kg/m²</t>
+  </si>
+  <si>
+    <t>NPU19748</t>
+  </si>
+  <si>
+    <t>C-reaktivt protein [CRP];P</t>
+  </si>
+  <si>
+    <t>DNK05472</t>
+  </si>
+  <si>
+    <t>Blodtryk systolisk;Arm</t>
+  </si>
+  <si>
+    <t>DNK05473</t>
+  </si>
+  <si>
+    <t>Blodtryk diastolisk;Arm</t>
+  </si>
+  <si>
     <t>urn:oid:1.2.208.176.2.1</t>
   </si>
   <si>
-    <t>NPU19748</t>
-  </si>
-  <si>
-    <t>C-reaktivt protein [CRP];P</t>
-  </si>
-  <si>
-    <t>DNK05472</t>
-  </si>
-  <si>
-    <t>Blodtryk systolisk;Arm</t>
-  </si>
-  <si>
-    <t>DNK05473</t>
-  </si>
-  <si>
-    <t>Blodtryk diastolisk;Arm</t>
-  </si>
-  <si>
     <t>MCS88100</t>
   </si>
   <si>
@@ -216,7 +228,37 @@
     <t>FEV1;Lunge</t>
   </si>
   <si>
-    <t>urn-oid-1.2.208.184.100.8</t>
+    <t>MCS88019</t>
+  </si>
+  <si>
+    <t>Blodtryk hjemme systolisk;Arm</t>
+  </si>
+  <si>
+    <t>MCS88020</t>
+  </si>
+  <si>
+    <t>Blodtryk hjemme diastolisk;Arm</t>
+  </si>
+  <si>
+    <t>MCS88050</t>
+  </si>
+  <si>
+    <t>Rejse sætte sig testen;Pt</t>
+  </si>
+  <si>
+    <t>MCS88137</t>
+  </si>
+  <si>
+    <t>CAT score;Pt</t>
+  </si>
+  <si>
+    <t>MCS88021</t>
+  </si>
+  <si>
+    <t>MRC skala;Pt(KOL)</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.208.184.100.8</t>
   </si>
   <si>
     <t>Codes</t>
@@ -597,7 +639,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -649,18 +691,58 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="B7" t="s" s="2">
-        <v>55</v>
+      <c r="B12" t="s" s="2">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -670,7 +752,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -690,58 +772,74 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="B8" t="s" s="2">
-        <v>66</v>
+      <c r="B10" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -763,12 +861,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3">
@@ -784,7 +882,7 @@
         <v>45</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/fhir/ValueSet-dk-ihe-eventcodelists-vs.xlsx
+++ b/fhir/ValueSet-dk-ihe-eventcodelists-vs.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.0</t>
+    <t>3.5.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-dk-ihe-eventcodelists-vs.xlsx
+++ b/fhir/ValueSet-dk-ihe-eventcodelists-vs.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.1</t>
+    <t>4.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -198,7 +198,7 @@
     <t>NPU19748</t>
   </si>
   <si>
-    <t>C-reaktivt protein [CRP];P</t>
+    <t>P—C-reaktivt protein; massek. = ? mg/L</t>
   </si>
   <si>
     <t>DNK05472</t>

--- a/fhir/ValueSet-dk-ihe-eventcodelists-vs.xlsx
+++ b/fhir/ValueSet-dk-ihe-eventcodelists-vs.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.0</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-dk-ihe-eventcodelists-vs.xlsx
+++ b/fhir/ValueSet-dk-ihe-eventcodelists-vs.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.1</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-dk-ihe-eventcodelists-vs.xlsx
+++ b/fhir/ValueSet-dk-ihe-eventcodelists-vs.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>5.0.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-dk-ihe-eventcodelists-vs.xlsx
+++ b/fhir/ValueSet-dk-ihe-eventcodelists-vs.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.1</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
